--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_31.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_25_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2455571.999170448</v>
+        <v>2453319.919459239</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>380.4780903101788</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>92.72329049755739</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -677,7 +677,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247734</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>89.30009903636078</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>103.4870232461741</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>343.4798709087826</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>218.8748435506841</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>32.24238685723915</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>57.91073356940615</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1142,13 +1142,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>120.7307820829398</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>322.6209123555514</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>54.45803047044426</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>160.238372828422</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1531,10 +1531,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>81.07546534818279</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,10 +1543,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428436</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187874</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>114.0764389318045</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1780,7 +1780,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428256</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1904,7 +1904,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174136</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>48.4745767553171</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>60.42721558712923</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146491</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,7 +3190,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,13 +3241,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>246.2025596887052</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>40.53421095546921</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788181281</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,19 +3898,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3964,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>53.65602513333643</v>
       </c>
     </row>
     <row r="44">
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4141,19 +4141,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>103.1686991936197</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>94.05355358057936</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,16 +4304,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>921.7704558796265</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F2" t="n">
         <v>821.1650657389509</v>
@@ -4325,55 +4325,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>3119.628073993392</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>3119.628073993392</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>3119.628073993392</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y2" t="n">
-        <v>2729.48874201758</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556937</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.64310427581</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609103</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635988</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686066</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064741</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080121</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986294</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068412</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201685</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695165</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507436</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547492</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341959</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577005</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>449.8213709509843</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="C4" t="n">
-        <v>449.8213709509843</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>449.8213709509843</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>449.8213709509843</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>302.9314234530739</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>302.9314234530739</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>156.7142366709317</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962282</v>
+        <v>78.33486996962289</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372931</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588484</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886959</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068856</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596443</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.8870058181845</v>
+        <v>920.887005818185</v>
       </c>
       <c r="R4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181845</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181845</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="V4" t="n">
-        <v>920.8870058181845</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="W4" t="n">
-        <v>631.469835781224</v>
+        <v>541.9536817013565</v>
       </c>
       <c r="X4" t="n">
-        <v>631.469835781224</v>
+        <v>437.4213349880492</v>
       </c>
       <c r="Y4" t="n">
-        <v>631.469835781224</v>
+        <v>216.6287558445192</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1601.546535481797</v>
+        <v>1887.813801820605</v>
       </c>
       <c r="C5" t="n">
-        <v>1232.584018541385</v>
+        <v>1518.851284880193</v>
       </c>
       <c r="D5" t="n">
-        <v>874.3183199346347</v>
+        <v>1171.901920325867</v>
       </c>
       <c r="E5" t="n">
-        <v>488.5300673363904</v>
+        <v>786.1136677276232</v>
       </c>
       <c r="F5" t="n">
-        <v>77.54416254678287</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.51211643218342</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
         <v>66.51211643218342</v>
@@ -4565,7 +4565,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4577,7 +4577,7 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>3104.520121052924</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2751.75146578281</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>2378.28570752173</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="Y5" t="n">
-        <v>1988.146375545919</v>
+        <v>1887.813801820605</v>
       </c>
     </row>
     <row r="6">
@@ -4620,64 +4620,64 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>831.0565485757124</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C7" t="n">
-        <v>831.0565485757124</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962284</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L7" t="n">
-        <v>332.3555681596504</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588481</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886956</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068853</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596438</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.8870058181845</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S7" t="n">
-        <v>831.0565485757124</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="T7" t="n">
-        <v>831.0565485757124</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="U7" t="n">
-        <v>831.0565485757124</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="V7" t="n">
-        <v>831.0565485757124</v>
+        <v>609.2899331452389</v>
       </c>
       <c r="W7" t="n">
-        <v>831.0565485757124</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="X7" t="n">
-        <v>831.0565485757124</v>
+        <v>319.8727631082783</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.0565485757124</v>
+        <v>99.08018396474822</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1643.543434242328</v>
+        <v>1648.00486941082</v>
       </c>
       <c r="C8" t="n">
-        <v>1274.580917301916</v>
+        <v>1279.042352470408</v>
       </c>
       <c r="D8" t="n">
-        <v>916.3152186951659</v>
+        <v>920.7766538636577</v>
       </c>
       <c r="E8" t="n">
-        <v>530.5269660969217</v>
+        <v>534.9884012654134</v>
       </c>
       <c r="F8" t="n">
-        <v>119.5410613073141</v>
+        <v>528.0429005162099</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,16 +4802,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3119.628073993393</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3119.628073993393</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2793.748364543341</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X8" t="n">
-        <v>2420.282606282261</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y8" t="n">
-        <v>2030.14327430645</v>
+        <v>2034.604709474942</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4857,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
         <v>618.1564155387305</v>
@@ -4869,46 +4869,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064622</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="C10" t="n">
         <v>66.51211643218342</v>
@@ -4990,22 +4990,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="W10" t="n">
-        <v>865.8788942318776</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="X10" t="n">
-        <v>637.8893433338602</v>
+        <v>410.0175235133545</v>
       </c>
       <c r="Y10" t="n">
-        <v>417.0967641903301</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="11">
@@ -5018,22 +5018,22 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
@@ -5042,46 +5042,46 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438167</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400739</v>
+        <v>741.8431516380872</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121671</v>
+        <v>572.9069687101803</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121671</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121671</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121671</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G13" t="n">
-        <v>177.721318527047</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797728</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.56011257082</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279805</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853364</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.06254548757</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510511</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854709</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648822</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611861</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138438</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703137</v>
+        <v>923.4916164683269</v>
       </c>
     </row>
     <row r="14">
@@ -5255,70 +5255,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>119.2902967703778</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969299</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951537</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="17">
@@ -5495,67 +5495,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>719.5738700011939</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>550.637687073287</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1639.421634909942</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1350.004464872981</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1122.014913974964</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>901.2223348314336</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5732,28 +5732,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,19 +5762,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,19 +5963,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
@@ -5984,25 +5984,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6066,28 +6066,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6242,34 +6242,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,25 +6458,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6540,22 +6540,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M30" t="n">
-        <v>1307.627092998424</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P30" t="n">
         <v>2283.159972732779</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,25 +6686,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6780,16 +6780,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192542</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311171</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,37 +7184,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L39" t="n">
-        <v>245.2306927803938</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438171</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1815.886107649656</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>472.9099533103043</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,46 +7385,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>680.448174698413</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908938</v>
+        <v>680.448174698413</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908938</v>
+        <v>530.3315352860773</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
         <v>235.5284942057738</v>
@@ -7567,52 +7567,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>862.0966395286528</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7658,16 +7658,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7722,28 +7722,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438171</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>565.7099969556945</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>417.7969033733013</v>
       </c>
       <c r="F46" t="n">
-        <v>198.0274703142544</v>
+        <v>270.906955875391</v>
       </c>
       <c r="G46" t="n">
-        <v>93.81666304797187</v>
+        <v>270.906955875391</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
   </sheetData>
@@ -23419,10 +23419,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>67.54000767002957</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.2291039219395</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23650,16 +23650,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>65.75554125013275</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>57.2291039219413</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>203.6630665685109</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24607,7 +24607,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194186</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25129,13 +25129,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>40.32043864788582</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25360,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>126.7126101431586</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.22910392194038</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>164.9286282187583</v>
       </c>
     </row>
     <row r="44">
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>62.35543909864911</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>46.24115926564453</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>802216.5338230639</v>
+        <v>802216.5338230638</v>
       </c>
     </row>
     <row r="9">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>636307.3716448196</v>
+      </c>
+      <c r="C2" t="n">
         <v>636307.37164482</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>636307.3716448195</v>
-      </c>
-      <c r="D2" t="n">
-        <v>636307.3716448201</v>
       </c>
       <c r="E2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="G2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="I2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="K2" t="n">
-        <v>625538.6147597545</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="N2" t="n">
         <v>625538.6147597547</v>
@@ -26353,7 +26353,7 @@
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597546</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727592</v>
+        <v>1328744.745727593</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405259</v>
+        <v>93596.74410405252</v>
       </c>
       <c r="C4" t="n">
+        <v>93596.74410405257</v>
+      </c>
+      <c r="D4" t="n">
         <v>93596.74410405254</v>
       </c>
-      <c r="D4" t="n">
-        <v>93596.74410405252</v>
-      </c>
       <c r="E4" t="n">
-        <v>16046.58397189198</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="F4" t="n">
-        <v>16046.58397189194</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="G4" t="n">
-        <v>16046.58397189195</v>
+        <v>16046.583971892</v>
       </c>
       <c r="H4" t="n">
-        <v>16046.58397189193</v>
+        <v>16046.583971892</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26442,13 +26442,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="K4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.583971892</v>
       </c>
       <c r="L4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
-        <v>16046.58397189196</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
         <v>16046.58397189197</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893968.058748218</v>
+        <v>-893968.0587482188</v>
       </c>
       <c r="C6" t="n">
+        <v>434776.6869793741</v>
+      </c>
+      <c r="D6" t="n">
         <v>434776.6869793737</v>
       </c>
-      <c r="D6" t="n">
-        <v>434776.686979374</v>
-      </c>
       <c r="E6" t="n">
-        <v>182957.0391566003</v>
+        <v>182922.301231165</v>
       </c>
       <c r="F6" t="n">
-        <v>508369.5009639559</v>
+        <v>508334.7630385198</v>
       </c>
       <c r="G6" t="n">
-        <v>508369.5009639561</v>
+        <v>508334.76303852</v>
       </c>
       <c r="H6" t="n">
-        <v>508369.5009639561</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="I6" t="n">
-        <v>508369.5009639556</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="J6" t="n">
-        <v>290838.2985666781</v>
+        <v>290803.5606412425</v>
       </c>
       <c r="K6" t="n">
-        <v>508369.5009639554</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="L6" t="n">
-        <v>508369.5009639555</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="M6" t="n">
-        <v>423314.4730284438</v>
+        <v>423279.7351030081</v>
       </c>
       <c r="N6" t="n">
-        <v>508369.5009639556</v>
+        <v>508334.7630385199</v>
       </c>
       <c r="O6" t="n">
-        <v>508369.5009639557</v>
+        <v>508334.76303852</v>
       </c>
       <c r="P6" t="n">
-        <v>508369.5009639556</v>
+        <v>508334.7630385198</v>
       </c>
     </row>
   </sheetData>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26820,10 +26820,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2.255751353301775</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>261.9597511231256</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.06581410364015e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>7.052321373477341</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27591,19 +27591,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>122.222632142863</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.20317071190033</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>108.8774149194508</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27713,7 +27713,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>147.5895933246981</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>90.70473944880621</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27862,13 +27862,13 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>290.1909435705136</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>26.62005636186166</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28062,22 +28062,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>232.0649678661467</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>58.34628052367276</v>
       </c>
     </row>
     <row r="11">
@@ -28096,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.372239644026619e-13</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.645976398458939e-13</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30420,7 +30420,7 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I2" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31601,7 +31601,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622656</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>567.4250434254225</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437245</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>164.2853229338196</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>538.5853835133125</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>728.6709493241814</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>709.4760096096878</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>510.682889626564</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>379.4203056753698</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33418,34 +33418,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.267838362266</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>473.8581708471803</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067226</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>366.8427442359106</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>651.5998000366021</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34129,34 +34129,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>333.9544784328825</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34366,34 +34366,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34448,37 +34448,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>11.94217529034286</v>
+        <v>11.94217529034289</v>
       </c>
       <c r="K7" t="n">
-        <v>99.30389319966699</v>
+        <v>99.30389319966704</v>
       </c>
       <c r="L7" t="n">
-        <v>157.2826706286436</v>
+        <v>157.2826706286437</v>
       </c>
       <c r="M7" t="n">
-        <v>169.1237184840381</v>
+        <v>169.1237184840382</v>
       </c>
       <c r="N7" t="n">
-        <v>173.0392293230782</v>
+        <v>173.0392293230783</v>
       </c>
       <c r="O7" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P7" t="n">
-        <v>99.95050783106927</v>
+        <v>99.95050783106933</v>
       </c>
       <c r="Q7" t="n">
-        <v>13.05128016014217</v>
+        <v>13.0512801601422</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597692</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402472</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>436.0833313420891</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992801</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191298</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010469</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>25.7309431539454</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>396.4513495912942</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,22 +35966,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>597.3292372408481</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>578.1342975263545</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>368.5488557045456</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>237.2862717533515</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402477</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>342.516458763847</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236316704</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>509.0035555921577</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
-        <v>295.6317733066263</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q40" t="n">
         <v>120.4022572998984</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37862,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>191.358233988438</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
